--- a/output_data/charts/1600000US3902680.xlsx
+++ b/output_data/charts/1600000US3902680.xlsx
@@ -141,52 +141,58 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2012</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2013</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2016</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2017</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2018</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
@@ -194,44 +200,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.001899476712788</c:v>
+                  <c:v>2.315020134466304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.302187540450082</c:v>
+                  <c:v>2.600443359912015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.339855599510387</c:v>
+                  <c:v>2.487809732311673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.541586472367336</c:v>
+                  <c:v>2.508468728436108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.403224201413076</c:v>
+                  <c:v>2.739961281458815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.507684586914246</c:v>
+                  <c:v>2.946121683753181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.778992068943983</c:v>
+                  <c:v>3.308257698891014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.908923177645185</c:v>
+                  <c:v>3.542643967761244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.250722782388562</c:v>
+                  <c:v>3.827018752391886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.557781984715823</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.893001834329678</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>3.815945212559762</c:v>
                 </c:pt>
               </c:numCache>
@@ -255,7 +255,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +272,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.282302017762646"/>
+          <c:max val="5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +284,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +296,31 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +342,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -623,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,97 +671,81 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="1">
-        <v>2.001899476712788</v>
+        <v>2.315020134466304</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="1">
-        <v>2.302187540450082</v>
+        <v>2.600443359912015</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="1">
-        <v>2.339855599510387</v>
+        <v>2.487809732311673</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="1">
-        <v>2.541586472367336</v>
+        <v>2.508468728436108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="1">
-        <v>2.403224201413076</v>
+        <v>2.739961281458815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="1">
-        <v>2.507684586914246</v>
+        <v>2.946121683753181</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="1">
-        <v>2.778992068943983</v>
+        <v>3.308257698891014</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="1">
-        <v>2.908923177645185</v>
+        <v>3.542643967761244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="1">
-        <v>3.250722782388562</v>
+        <v>3.827018752391886</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="1">
-        <v>3.557781984715823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.893001834329678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="1">
         <v>3.815945212559762</v>
       </c>
     </row>
